--- a/Plz_CAPUFE.xlsx
+++ b/Plz_CAPUFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C6F43A-C954-40C7-B9E1-E17ECAE2AE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F380F478-72CA-429F-8095-DA3E05E10547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9270B6E3-9832-4BCF-841C-EDF847526966}"/>
   </bookViews>
@@ -41,21 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="379">
   <si>
-    <t>Tipo_Red</t>
-  </si>
-  <si>
-    <t>Uni_Region</t>
-  </si>
-  <si>
-    <t>No_Casetas</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>SECCION</t>
-  </si>
-  <si>
     <t>FNI</t>
   </si>
   <si>
@@ -722,15 +707,9 @@
     <t>Jiménez</t>
   </si>
   <si>
-    <t>No_Pla</t>
-  </si>
-  <si>
     <t>Fuente: CAPUFE. Caminos y Puentes Federales de Ingresos y Servicios Conexos.</t>
   </si>
   <si>
-    <t>ID_Edo</t>
-  </si>
-  <si>
     <t>Ciudad de México</t>
   </si>
   <si>
@@ -1176,6 +1155,27 @@
   </si>
   <si>
     <t>16.8631673304 -93.406858909</t>
+  </si>
+  <si>
+    <t>Tipo de red</t>
+  </si>
+  <si>
+    <t>Unidad regional</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Entidad federativa</t>
+  </si>
+  <si>
+    <t>No. de casetas</t>
+  </si>
+  <si>
+    <t>No. de plaza</t>
   </si>
 </sst>
 </file>
@@ -1239,17 +1239,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1279,34 +1311,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2390,20 +2394,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}" name="BD_Plz" displayName="BD_Plz" ref="B4:I130" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}" name="BD_Plz" displayName="BD_Plz" ref="B4:I130" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9">
   <autoFilter ref="B4:I130" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H130">
-    <sortCondition ref="D4:D130"/>
+    <sortCondition ref="C4:C130"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1A60CC25-0D8C-48F4-B138-D02427158A5F}" name="No_Pla" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{47F4E585-D0AF-49D2-8CDC-A679C031738F}" name="Tipo_Red" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{C2B51141-3E8A-455D-BF51-B7683B710157}" name="Uni_Region" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{DF00E6E9-F408-4232-BDE5-4DC82566556C}" name="No_Casetas" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4A22690D-F4EA-4EFE-9DCD-0B2AD68B1E96}" name="NOMBRE" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5C182212-4276-48D9-ABDB-4179D777F8E9}" name="SECCION" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{B65AF933-8351-433D-B36F-3E27C851C31A}" name="ID_Edo" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{9EFD326D-30CF-4585-84CD-3E74DFCEAE90}" name="Ubicación" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{47F4E585-D0AF-49D2-8CDC-A679C031738F}" name="Tipo de red" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C2B51141-3E8A-455D-BF51-B7683B710157}" name="Unidad regional" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{1A60CC25-0D8C-48F4-B138-D02427158A5F}" name="No. de plaza" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DF00E6E9-F408-4232-BDE5-4DC82566556C}" name="No. de casetas" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4A22690D-F4EA-4EFE-9DCD-0B2AD68B1E96}" name="Nombre" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5C182212-4276-48D9-ABDB-4179D777F8E9}" name="Sección" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B65AF933-8351-433D-B36F-3E27C851C31A}" name="Entidad federativa" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9EFD326D-30CF-4585-84CD-3E74DFCEAE90}" name="Ubicación" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2641,14 +2645,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.21875" style="2" bestFit="1" customWidth="1"/>
@@ -2657,3523 +2661,3523 @@
   <sheetData>
     <row r="2" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
         <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2">
         <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L6" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K6)</f>
+        <f>COUNTIF(BD_Plz[Unidad regional],K6)</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2">
         <v>67</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E7" s="2">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K7)</f>
+        <f>COUNTIF(BD_Plz[Unidad regional],K7)</f>
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2">
         <v>67.099999999999994</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L8" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K8)</f>
+        <f>COUNTIF(BD_Plz[Unidad regional],K8)</f>
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2">
         <v>99</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L9" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K9)</f>
+        <f>COUNTIF(BD_Plz[Unidad regional],K9)</f>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2">
         <v>118</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L10" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K10)</f>
+        <f>COUNTIF(BD_Plz[Unidad regional],K10)</f>
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2">
         <v>119</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E11" s="2">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L11" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K11)</f>
+        <f>COUNTIF(BD_Plz[Unidad regional],K11)</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
+      <c r="D12" s="2">
+        <v>1</v>
       </c>
       <c r="E12" s="2">
         <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L12" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K12)</f>
+        <f>COUNTIF(BD_Plz[Unidad regional],K12)</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L13" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K13)</f>
+        <f>COUNTIF(BD_Plz[Unidad regional],K13)</f>
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
         <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E14" s="2">
         <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="3">
+        <f>COUNTIF(BD_Plz[Unidad regional],K14)</f>
         <v>11</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K14)</f>
-        <v>11</v>
-      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
         <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E15" s="2">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L15" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K15)</f>
+        <f>COUNTIF(BD_Plz[Unidad regional],K15)</f>
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
         <v>25</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L16" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K16)</f>
+        <f>COUNTIF(BD_Plz[Unidad regional],K16)</f>
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
         <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E17" s="2">
         <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L17" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K17)</f>
+        <f>COUNTIF(BD_Plz[Unidad regional],K17)</f>
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
         <v>56.1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E18" s="2">
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="3">
+        <f>COUNTIF(BD_Plz[Unidad regional],K18)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
         <v>59</v>
-      </c>
-      <c r="L18" s="3">
-        <f>COUNTIF(BD_Plz[Uni_Region],K18)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B19" s="2">
-        <v>59</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E19" s="2">
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K19"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
         <v>101</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K20"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
         <v>102</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K21"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>103</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K22"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
         <v>104</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K23"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
         <v>105</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K24"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
         <v>106</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K25"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
         <v>107</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E26" s="2">
         <v>16</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K26"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
         <v>184</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E27" s="2">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K27"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
         <v>223</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E28" s="2">
         <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K28"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
         <v>224</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E29" s="2">
         <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K29"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2">
         <v>4</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E30" s="2">
         <v>26</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K30"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2">
         <v>69</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K31"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
         <v>70</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E32" s="2">
         <v>4</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K32"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2">
         <v>133</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E33" s="2">
         <v>6</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K33"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2">
         <v>134</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K34"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2">
         <v>135</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K35"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2">
         <v>136</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E36" s="2">
         <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K36"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B37" s="2">
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2">
         <v>137</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E37" s="2">
         <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K37"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2">
         <v>138</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E38" s="2">
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2">
         <v>139</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E39" s="2">
         <v>7</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K39"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2">
         <v>185</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E40" s="2">
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K40"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="2">
         <v>148</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E41" s="2">
         <v>6</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K41"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B42" s="2">
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="2">
         <v>149</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E42" s="2">
         <v>6</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K42"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="2">
         <v>150</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E43" s="2">
         <v>7</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K43"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B44" s="2">
+      <c r="B44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="2">
         <v>151</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E44" s="2">
         <v>6</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K44"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="2">
         <v>152</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E45" s="2">
         <v>8</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="K45"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B46" s="2">
+      <c r="B46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="2">
         <v>153</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E46" s="2">
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K46"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B47" s="2">
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2">
         <v>10</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K47"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B48" s="2">
+      <c r="B48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2">
         <v>11</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E48" s="2">
         <v>7</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K48"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B49" s="2">
+      <c r="B49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="2">
         <v>53</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E49" s="2">
         <v>6</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K49"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B50" s="2">
+      <c r="B50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2">
         <v>86</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E50" s="2">
         <v>7</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K50"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B51" s="2">
+      <c r="B51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2">
         <v>95</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E51" s="2">
         <v>8</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K51"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B52" s="2">
+      <c r="B52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2">
         <v>96</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E52" s="2">
         <v>8</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K52"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B53" s="2">
+      <c r="B53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2">
         <v>97</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E53" s="2">
         <v>8</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K53"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B54" s="2">
+      <c r="B54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="2">
         <v>98</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E54" s="2">
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K54"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B55" s="2">
+      <c r="B55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2">
         <v>195</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E55" s="2">
         <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K55"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B56" s="2">
+      <c r="B56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="2">
         <v>196</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E56" s="2">
         <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K56"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B57" s="2">
+      <c r="B57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="2">
         <v>197</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E57" s="2">
         <v>6</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K57"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B58" s="2">
+      <c r="B58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="2">
         <v>78</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E58" s="2">
         <v>8</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K58"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B59" s="2">
+      <c r="B59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="2">
         <v>79</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E59" s="2">
         <v>8</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K59"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B60" s="2">
+      <c r="B60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="2">
         <v>89</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E60" s="2">
         <v>4</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K60"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B61" s="2">
+      <c r="B61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="2">
         <v>90</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E61" s="2">
         <v>8</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K61"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B62" s="2">
+      <c r="B62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="2">
         <v>225</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E62" s="2">
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K62"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B63" s="2">
+      <c r="B63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="2">
         <v>226</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E63" s="2">
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="K63"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B64" s="2">
+      <c r="B64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="2">
         <v>7</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E64" s="2">
         <v>23</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K64"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B65" s="2">
+      <c r="B65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="2">
         <v>8</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E65" s="2">
         <v>36</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K65"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B66" s="2">
+      <c r="B66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="2">
         <v>26</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E66" s="2">
         <v>22</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K66"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B67" s="2">
+      <c r="B67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="2">
         <v>27</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E67" s="2">
         <v>14</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K67"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B68" s="2">
+      <c r="B68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2">
         <v>71</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E68" s="2">
         <v>14</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K68"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B69" s="2">
+      <c r="B69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="2">
         <v>76</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E69" s="2">
         <v>10</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K69"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B70" s="2">
+      <c r="B70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2">
         <v>77</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E70" s="2">
         <v>8</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K70"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B71" s="2">
+      <c r="B71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="2">
         <v>188</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E71" s="2">
         <v>4</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="K71"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B72" s="2">
+      <c r="B72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="2">
         <v>191</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E72" s="2">
         <v>6</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K72"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B73" s="2">
+      <c r="B73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="2">
         <v>192</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E73" s="2">
         <v>10</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K73"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B74" s="2">
+      <c r="B74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="2">
         <v>5</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E74" s="2">
         <v>34</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K74"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B75" s="2">
+      <c r="B75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2">
         <v>6</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E75" s="2">
         <v>14</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K75"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B76" s="2">
+      <c r="B76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="2">
         <v>41</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E76" s="2">
         <v>10</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K76"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B77" s="2">
+      <c r="B77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="2">
         <v>42</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E77" s="2">
         <v>4</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K77"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B78" s="2">
+      <c r="B78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="2">
         <v>61</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E78" s="2">
         <v>4</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="2">
         <v>87</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="K78"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B79" s="2">
-        <v>87</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E79" s="2">
         <v>6</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K79"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B80" s="2">
+      <c r="B80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="2">
         <v>127</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E80" s="2">
         <v>10</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K80"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B81" s="2">
+      <c r="B81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="2">
         <v>183</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E81" s="2">
         <v>2</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="K81"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B82" s="2">
+      <c r="B82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="2">
         <v>186</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E82" s="2">
         <v>9</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K82"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B83" s="2">
+      <c r="B83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="2">
         <v>190</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E83" s="2">
         <v>7</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K83"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B84" s="2">
+      <c r="B84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="2">
         <v>202</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E84" s="2">
         <v>7</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K84"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B85" s="2">
-        <v>14</v>
+      <c r="B85" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>28</v>
+      <c r="D85" s="2">
+        <v>14</v>
       </c>
       <c r="E85" s="2">
         <v>4</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K85"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B86" s="2">
-        <v>20</v>
+      <c r="B86" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>28</v>
+      <c r="D86" s="2">
+        <v>20</v>
       </c>
       <c r="E86" s="2">
         <v>3</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K86"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B87" s="2">
-        <v>30</v>
+      <c r="B87" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>28</v>
+      <c r="D87" s="2">
+        <v>30</v>
       </c>
       <c r="E87" s="2">
         <v>2</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="K87"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B88" s="2">
-        <v>31</v>
+      <c r="B88" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>28</v>
+      <c r="D88" s="2">
+        <v>31</v>
       </c>
       <c r="E88" s="2">
         <v>2</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K88"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B89" s="2">
-        <v>37</v>
+      <c r="B89" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>28</v>
+      <c r="D89" s="2">
+        <v>37</v>
       </c>
       <c r="E89" s="2">
         <v>5</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K89"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B90" s="2">
-        <v>47</v>
+      <c r="B90" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>28</v>
+      <c r="D90" s="2">
+        <v>47</v>
       </c>
       <c r="E90" s="2">
         <v>3</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K90"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B91" s="2">
-        <v>48</v>
+      <c r="B91" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>28</v>
+      <c r="D91" s="2">
+        <v>48</v>
       </c>
       <c r="E91" s="2">
         <v>4</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K91"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B92" s="2">
-        <v>49</v>
+      <c r="B92" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>28</v>
+      <c r="D92" s="2">
+        <v>49</v>
       </c>
       <c r="E92" s="2">
         <v>4</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K92"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B93" s="2">
-        <v>66</v>
+      <c r="B93" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>28</v>
+      <c r="D93" s="2">
+        <v>66</v>
       </c>
       <c r="E93" s="2">
         <v>2</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K93"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B94" s="2">
-        <v>74</v>
+      <c r="B94" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>28</v>
+      <c r="D94" s="2">
+        <v>74</v>
       </c>
       <c r="E94" s="2">
         <v>5</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K94"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B95" s="2">
+      <c r="B95" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="2">
         <v>112</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E95" s="2">
         <v>8</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K95"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B96" s="2">
+      <c r="B96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="2">
         <v>40</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E96" s="2">
         <v>4</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="K96"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B97" s="2">
+      <c r="B97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="2">
         <v>50</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E97" s="2">
         <v>3</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K97"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B98" s="2">
+      <c r="B98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="2">
         <v>62</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E98" s="2">
         <v>3</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K98"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B99" s="2">
+      <c r="B99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="2">
         <v>65</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E99" s="2">
         <v>3</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K99"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B100" s="2">
+      <c r="B100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="2">
         <v>140</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E100" s="2">
         <v>8</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K100"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B101" s="2">
+      <c r="B101" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="2">
         <v>141</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E101" s="2">
         <v>8</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K101"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B102" s="2">
+      <c r="B102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="2">
         <v>142</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E102" s="2">
         <v>3</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K102"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B103" s="2">
+      <c r="B103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="2">
         <v>160</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E103" s="2">
         <v>4</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="K103"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B104" s="2">
+      <c r="B104" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="2">
         <v>161</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E104" s="2">
         <v>4</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K104"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B105" s="2">
+      <c r="B105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="2">
         <v>162</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E105" s="2">
         <v>5</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="K105"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B106" s="2">
+      <c r="B106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="2">
         <v>163</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E106" s="2">
         <v>5</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K106"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B107" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K107"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B108" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K108"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B109" s="2">
+      <c r="B109" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" s="2">
         <v>34</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E109" s="2">
         <v>14</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K109"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B110" s="2">
+      <c r="B110" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" s="2">
         <v>35</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E110" s="2">
         <v>14</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="K110"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B111" s="2">
+      <c r="B111" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" s="2">
         <v>36</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E111" s="2">
         <v>14</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K111"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B112" s="2">
+      <c r="B112" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" s="2">
         <v>83</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E112" s="2">
         <v>8</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K112"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B113" s="2">
+      <c r="B113" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" s="2">
         <v>189</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E113" s="2">
         <v>7</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="K113"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B114" s="2">
+      <c r="B114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="2">
         <v>22</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E114" s="2">
         <v>4</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K114"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B115" s="2">
-        <v>33</v>
+      <c r="B115" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="2">
         <v>33</v>
       </c>
       <c r="E115" s="2">
         <v>3</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K115"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B116" s="2">
+      <c r="B116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="2">
         <v>43</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E116" s="2">
         <v>4</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="K116"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B117" s="2">
+      <c r="B117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" s="2">
         <v>63</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E117" s="2">
         <v>2</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K117"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B118" s="2">
+      <c r="B118" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="2">
         <v>116</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E118" s="2">
         <v>13</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="K118"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B119" s="2">
+      <c r="B119" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="2">
         <v>117</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E119" s="2">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="K119"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B120" s="2">
+      <c r="B120" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="2">
         <v>177</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E120" s="2">
         <v>2</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K120"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B121" s="2">
+      <c r="B121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" s="2">
         <v>38</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E121" s="2">
         <v>8</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K121"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B122" s="2">
+      <c r="B122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" s="2">
         <v>39</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E122" s="2">
         <v>4</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="K122"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B123" s="2">
+      <c r="B123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D123" s="2">
         <v>60</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K123"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B124" s="2">
+      <c r="B124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" s="2">
         <v>85</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E124" s="2">
         <v>2</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K124"/>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B125" s="2">
+      <c r="B125" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" s="2">
         <v>132</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E125" s="2">
         <v>8</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="K125"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B126" s="2">
+      <c r="B126" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" s="2">
         <v>164</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E126" s="2">
         <v>4</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K126"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B127" s="2">
+      <c r="B127" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D127" s="2">
         <v>176</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E127" s="2">
         <v>10</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K127"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B128" s="2">
+      <c r="B128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" s="2">
         <v>179</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E128" s="2">
         <v>6</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K128"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B129" s="2">
+      <c r="B129" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" s="2">
         <v>181</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E129" s="2">
         <v>8</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K129"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B130" s="2">
+      <c r="B130" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="2">
         <v>182</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E130" s="2">
         <v>4</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K130"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B131" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Plz_CAPUFE.xlsx
+++ b/Plz_CAPUFE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F380F478-72CA-429F-8095-DA3E05E10547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497563F1-2A87-4E3D-ABF8-8820C00E383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9270B6E3-9832-4BCF-841C-EDF847526966}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9270B6E3-9832-4BCF-841C-EDF847526966}"/>
   </bookViews>
   <sheets>
     <sheet name="Plazas_de_Cobro" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="380">
   <si>
     <t>FNI</t>
   </si>
@@ -1176,6 +1176,9 @@
   </si>
   <si>
     <t>No. de plaza</t>
+  </si>
+  <si>
+    <t>Lagos de Moreno</t>
   </si>
 </sst>
 </file>
@@ -1253,35 +1256,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1395,6 +1369,35 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2394,20 +2397,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}" name="BD_Plz" displayName="BD_Plz" ref="B4:I130" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}" name="BD_Plz" displayName="BD_Plz" ref="B4:I130" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B4:I130" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H130">
     <sortCondition ref="C4:C130"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{47F4E585-D0AF-49D2-8CDC-A679C031738F}" name="Tipo de red" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C2B51141-3E8A-455D-BF51-B7683B710157}" name="Unidad regional" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{1A60CC25-0D8C-48F4-B138-D02427158A5F}" name="No. de plaza" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{DF00E6E9-F408-4232-BDE5-4DC82566556C}" name="No. de casetas" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{4A22690D-F4EA-4EFE-9DCD-0B2AD68B1E96}" name="Nombre" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5C182212-4276-48D9-ABDB-4179D777F8E9}" name="Sección" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B65AF933-8351-433D-B36F-3E27C851C31A}" name="Entidad federativa" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9EFD326D-30CF-4585-84CD-3E74DFCEAE90}" name="Ubicación" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{47F4E585-D0AF-49D2-8CDC-A679C031738F}" name="Tipo de red" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C2B51141-3E8A-455D-BF51-B7683B710157}" name="Unidad regional" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{1A60CC25-0D8C-48F4-B138-D02427158A5F}" name="No. de plaza" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{DF00E6E9-F408-4232-BDE5-4DC82566556C}" name="No. de casetas" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4A22690D-F4EA-4EFE-9DCD-0B2AD68B1E96}" name="Nombre" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5C182212-4276-48D9-ABDB-4179D777F8E9}" name="Sección" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{B65AF933-8351-433D-B36F-3E27C851C31A}" name="Entidad federativa" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{9EFD326D-30CF-4585-84CD-3E74DFCEAE90}" name="Ubicación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4893,7 +4896,7 @@
         <v>7</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>201</v>

--- a/Plz_CAPUFE.xlsx
+++ b/Plz_CAPUFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497563F1-2A87-4E3D-ABF8-8820C00E383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A00A61-8DEA-4EB7-86D9-5BB055320780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9270B6E3-9832-4BCF-841C-EDF847526966}"/>
   </bookViews>
@@ -1194,14 +1194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Noto Sans"/>
@@ -1220,6 +1212,14 @@
       <color theme="0"/>
       <name val="Noto Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1245,12 +1245,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1447,7 +1447,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Plazas de Cobro por Unidad</a:t>
+              <a:t>Plazas de cobro por Unidad</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
@@ -2647,3539 +2647,3539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="7.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="2:12" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.45">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:12" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>28</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>29</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K6)</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>67</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K7)</f>
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>67.099999999999994</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K8)</f>
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>99</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K9)</f>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>118</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K10)</f>
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>119</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>12</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K11)</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>28</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K12)</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K13)</f>
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K14)</f>
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>24</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>9</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K15)</f>
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>25</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K16)</f>
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>56</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>4</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K17)</f>
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>56.1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>4</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K18)</f>
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>59</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>9</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>261</v>
       </c>
       <c r="K19"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>101</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>262</v>
       </c>
       <c r="K20"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>102</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>14</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>263</v>
       </c>
       <c r="K21"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>103</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>14</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>264</v>
       </c>
       <c r="K22"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>104</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>14</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>265</v>
       </c>
       <c r="K23"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>105</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>2</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>266</v>
       </c>
       <c r="K24"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>106</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>267</v>
       </c>
       <c r="K25"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>107</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>16</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>268</v>
       </c>
       <c r="K26"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>184</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>12</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K27"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>223</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>6</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="1" t="s">
         <v>270</v>
       </c>
       <c r="K28"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>224</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
         <v>271</v>
       </c>
       <c r="K29"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>4</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>26</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="1" t="s">
         <v>272</v>
       </c>
       <c r="K30"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>69</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="1" t="s">
         <v>273</v>
       </c>
       <c r="K31"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>70</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>4</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="1" t="s">
         <v>274</v>
       </c>
       <c r="K32"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>133</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>6</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="1" t="s">
         <v>275</v>
       </c>
       <c r="K33"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>134</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="1" t="s">
         <v>276</v>
       </c>
       <c r="K34"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>135</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>10</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="1" t="s">
         <v>277</v>
       </c>
       <c r="K35"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>136</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>18</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="1" t="s">
         <v>278</v>
       </c>
       <c r="K36"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>137</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>7</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="1" t="s">
         <v>279</v>
       </c>
       <c r="K37"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>138</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>12</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="1" t="s">
         <v>280</v>
       </c>
       <c r="K38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>139</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>7</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>281</v>
       </c>
       <c r="K39"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>185</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>12</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="1" t="s">
         <v>282</v>
       </c>
       <c r="K40"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>148</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>6</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="1" t="s">
         <v>283</v>
       </c>
       <c r="K41"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>149</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>6</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="1" t="s">
         <v>284</v>
       </c>
       <c r="K42"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>150</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>7</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="1" t="s">
         <v>285</v>
       </c>
       <c r="K43"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>151</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>6</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="1" t="s">
         <v>286</v>
       </c>
       <c r="K44"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>152</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>8</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="1" t="s">
         <v>287</v>
       </c>
       <c r="K45"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>153</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>5</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="1" t="s">
         <v>288</v>
       </c>
       <c r="K46"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>10</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>4</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K47"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>11</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>7</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="1" t="s">
         <v>290</v>
       </c>
       <c r="K48"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>53</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>6</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="1" t="s">
         <v>291</v>
       </c>
       <c r="K49"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>86</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>7</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="1" t="s">
         <v>292</v>
       </c>
       <c r="K50"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>95</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>8</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="1" t="s">
         <v>293</v>
       </c>
       <c r="K51"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>96</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>8</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="1" t="s">
         <v>294</v>
       </c>
       <c r="K52"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>97</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>8</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="1" t="s">
         <v>295</v>
       </c>
       <c r="K53"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>98</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>10</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="1" t="s">
         <v>296</v>
       </c>
       <c r="K54"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>195</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>6</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="1" t="s">
         <v>297</v>
       </c>
       <c r="K55"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B56" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>196</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>6</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="1" t="s">
         <v>298</v>
       </c>
       <c r="K56"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>197</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>6</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="1" t="s">
         <v>299</v>
       </c>
       <c r="K57"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B58" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>78</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>8</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="1" t="s">
         <v>300</v>
       </c>
       <c r="K58"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>79</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>8</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="1" t="s">
         <v>301</v>
       </c>
       <c r="K59"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>89</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>4</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="1" t="s">
         <v>302</v>
       </c>
       <c r="K60"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>90</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>8</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="1" t="s">
         <v>303</v>
       </c>
       <c r="K61"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>225</v>
       </c>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="1" t="s">
         <v>304</v>
       </c>
       <c r="K62"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>226</v>
       </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="1" t="s">
         <v>305</v>
       </c>
       <c r="K63"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>7</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>23</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="1" t="s">
         <v>306</v>
       </c>
       <c r="K64"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>8</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>36</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="1" t="s">
         <v>307</v>
       </c>
       <c r="K65"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>26</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>22</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="1" t="s">
         <v>308</v>
       </c>
       <c r="K66"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>27</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>14</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="1" t="s">
         <v>309</v>
       </c>
       <c r="K67"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>71</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>14</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="1" t="s">
         <v>310</v>
       </c>
       <c r="K68"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>76</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>10</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="1" t="s">
         <v>311</v>
       </c>
       <c r="K69"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B70" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>77</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>8</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" s="1" t="s">
         <v>312</v>
       </c>
       <c r="K70"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B71" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>188</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>4</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I71" s="1" t="s">
         <v>313</v>
       </c>
       <c r="K71"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B72" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>191</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>6</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K72"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>192</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>10</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" s="1" t="s">
         <v>315</v>
       </c>
       <c r="K73"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>5</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>34</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" s="1" t="s">
         <v>316</v>
       </c>
       <c r="K74"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>6</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>14</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I75" s="1" t="s">
         <v>317</v>
       </c>
       <c r="K75"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <v>41</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1">
         <v>10</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I76" s="1" t="s">
         <v>318</v>
       </c>
       <c r="K76"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>42</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>4</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" s="1" t="s">
         <v>319</v>
       </c>
       <c r="K77"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <v>61</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1">
         <v>4</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="1" t="s">
         <v>320</v>
       </c>
       <c r="K78"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <v>87</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <v>6</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" s="1" t="s">
         <v>321</v>
       </c>
       <c r="K79"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B80" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <v>127</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>10</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" s="1" t="s">
         <v>322</v>
       </c>
       <c r="K80"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B81" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="B81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <v>183</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>2</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" s="1" t="s">
         <v>323</v>
       </c>
       <c r="K81"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B82" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="B82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <v>186</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <v>9</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" s="1" t="s">
         <v>324</v>
       </c>
       <c r="K82"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B83" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="B83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <v>190</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1">
         <v>7</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" s="1" t="s">
         <v>325</v>
       </c>
       <c r="K83"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B84" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="B84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>202</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <v>7</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" s="1" t="s">
         <v>326</v>
       </c>
       <c r="K84"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>14</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <v>4</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" s="1" t="s">
         <v>327</v>
       </c>
       <c r="K85"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="1">
         <v>20</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="1">
         <v>3</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" s="1" t="s">
         <v>328</v>
       </c>
       <c r="K86"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="1">
         <v>30</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="1">
         <v>2</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" s="1" t="s">
         <v>329</v>
       </c>
       <c r="K87"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="1">
         <v>31</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="1">
         <v>2</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I88" s="1" t="s">
         <v>330</v>
       </c>
       <c r="K88"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="1">
         <v>37</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="1">
         <v>5</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I89" s="1" t="s">
         <v>331</v>
       </c>
       <c r="K89"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="1">
         <v>47</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1">
         <v>3</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" s="1" t="s">
         <v>332</v>
       </c>
       <c r="K90"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="1">
         <v>48</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="1">
         <v>4</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" s="1" t="s">
         <v>333</v>
       </c>
       <c r="K91"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <v>49</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>4</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I92" s="1" t="s">
         <v>334</v>
       </c>
       <c r="K92"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>66</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>2</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" s="1" t="s">
         <v>335</v>
       </c>
       <c r="K93"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <v>74</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>5</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H94" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I94" s="1" t="s">
         <v>336</v>
       </c>
       <c r="K94"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B95" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="B95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="1">
         <v>112</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="1">
         <v>8</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="H95" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I95" s="1" t="s">
         <v>337</v>
       </c>
       <c r="K95"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="1">
         <v>40</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="1">
         <v>4</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I96" s="1" t="s">
         <v>338</v>
       </c>
       <c r="K96"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="1">
         <v>50</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="1">
         <v>3</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I97" s="1" t="s">
         <v>339</v>
       </c>
       <c r="K97"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="1">
         <v>62</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="1">
         <v>3</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="H98" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="I98" s="1" t="s">
         <v>340</v>
       </c>
       <c r="K98"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="1">
         <v>65</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="1">
         <v>3</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="H99" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="I99" s="1" t="s">
         <v>341</v>
       </c>
       <c r="K99"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B100" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="B100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="1">
         <v>140</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="1">
         <v>8</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H100" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I100" s="1" t="s">
         <v>342</v>
       </c>
       <c r="K100"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B101" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="2" t="s">
+      <c r="B101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="1">
         <v>141</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="1">
         <v>8</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="H101" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" s="1" t="s">
         <v>343</v>
       </c>
       <c r="K101"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B102" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="B102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="1">
         <v>142</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="1">
         <v>3</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I102" s="1" t="s">
         <v>344</v>
       </c>
       <c r="K102"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B103" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103" s="2" t="s">
+      <c r="B103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="1">
         <v>160</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="1">
         <v>4</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="H103" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="I103" s="1" t="s">
         <v>345</v>
       </c>
       <c r="K103"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B104" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" s="2" t="s">
+      <c r="B104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="1">
         <v>161</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="1">
         <v>4</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G104" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="H104" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="I104" s="1" t="s">
         <v>346</v>
       </c>
       <c r="K104"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B105" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" s="2" t="s">
+      <c r="B105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="1">
         <v>162</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="1">
         <v>5</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G105" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="H105" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="I105" s="1" t="s">
         <v>347</v>
       </c>
       <c r="K105"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B106" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106" s="2" t="s">
+      <c r="B106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="1">
         <v>163</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="1">
         <v>5</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H106" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="I106" s="1" t="s">
         <v>348</v>
       </c>
       <c r="K106"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="F107" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G107" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="H107" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="I107" s="1" t="s">
         <v>349</v>
       </c>
       <c r="K107"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="I108" s="1" t="s">
         <v>349</v>
       </c>
       <c r="K108"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B109" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" s="2" t="s">
+      <c r="B109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="1">
         <v>34</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="1">
         <v>14</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G109" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="H109" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="I109" s="1" t="s">
         <v>350</v>
       </c>
       <c r="K109"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B110" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="B110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="1">
         <v>35</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="1">
         <v>14</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F110" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="G110" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="H110" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="I110" s="1" t="s">
         <v>351</v>
       </c>
       <c r="K110"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B111" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="2" t="s">
+      <c r="B111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="1">
         <v>36</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="1">
         <v>14</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F111" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="H111" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="I111" s="1" t="s">
         <v>352</v>
       </c>
       <c r="K111"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B112" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="B112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="1">
         <v>83</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="1">
         <v>8</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F112" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="H112" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="I112" s="1" t="s">
         <v>353</v>
       </c>
       <c r="K112"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B113" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="B113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="1">
         <v>189</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="1">
         <v>7</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F113" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G113" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="H113" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="I113" s="1" t="s">
         <v>354</v>
       </c>
       <c r="K113"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="1">
         <v>22</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="1">
         <v>4</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F114" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G114" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="H114" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="I114" s="1" t="s">
         <v>355</v>
       </c>
       <c r="K114"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="1">
         <v>33</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="1">
         <v>3</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F115" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="H115" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="I115" s="1" t="s">
         <v>356</v>
       </c>
       <c r="K115"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="1">
         <v>43</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="1">
         <v>4</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="H116" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="I116" s="1" t="s">
         <v>357</v>
       </c>
       <c r="K116"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="1">
         <v>63</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="1">
         <v>2</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F117" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="H117" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="I117" s="1" t="s">
         <v>358</v>
       </c>
       <c r="K117"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B118" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="B118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="1">
         <v>116</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="1">
         <v>13</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="F118" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G118" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="H118" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="I118" s="1" t="s">
         <v>359</v>
       </c>
       <c r="K118"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B119" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C119" s="2" t="s">
+      <c r="B119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="1">
         <v>117</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="1">
         <v>12</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F119" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G119" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="H119" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="I119" s="1" t="s">
         <v>360</v>
       </c>
       <c r="K119"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B120" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="2" t="s">
+      <c r="B120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="1">
         <v>177</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="1">
         <v>2</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F120" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G120" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="H120" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I120" s="1" t="s">
         <v>361</v>
       </c>
       <c r="K120"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="1">
         <v>38</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="1">
         <v>8</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F121" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="H121" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="I121" s="1" t="s">
         <v>362</v>
       </c>
       <c r="K121"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="1">
         <v>39</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="1">
         <v>4</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F122" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="H122" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="I122" s="1" t="s">
         <v>363</v>
       </c>
       <c r="K122"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="1">
         <v>60</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="1">
         <v>1</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F123" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G123" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="H123" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="I123" s="1" t="s">
         <v>364</v>
       </c>
       <c r="K123"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="1">
         <v>85</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="1">
         <v>2</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F124" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G124" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="H124" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="I124" s="1" t="s">
         <v>365</v>
       </c>
       <c r="K124"/>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B125" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C125" s="2" t="s">
+      <c r="B125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="1">
         <v>132</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="1">
         <v>8</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F125" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G125" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="H125" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="I125" s="1" t="s">
         <v>366</v>
       </c>
       <c r="K125"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B126" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="2" t="s">
+      <c r="B126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="1">
         <v>164</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="1">
         <v>4</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F126" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G126" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="H126" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="I126" s="1" t="s">
         <v>367</v>
       </c>
       <c r="K126"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B127" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C127" s="2" t="s">
+      <c r="B127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="1">
         <v>176</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="1">
         <v>10</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F127" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="H127" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="I127" s="1" t="s">
         <v>368</v>
       </c>
       <c r="K127"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B128" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" s="2" t="s">
+      <c r="B128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="1">
         <v>179</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="1">
         <v>6</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F128" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="G128" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="H128" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="I128" s="1" t="s">
         <v>369</v>
       </c>
       <c r="K128"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B129" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" s="2" t="s">
+      <c r="B129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="1">
         <v>181</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="1">
         <v>8</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F129" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="G129" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="H129" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="I129" s="1" t="s">
         <v>370</v>
       </c>
       <c r="K129"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B130" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C130" s="2" t="s">
+      <c r="B130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="1">
         <v>182</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="1">
         <v>4</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F130" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G130" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="H130" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="I130" s="1" t="s">
         <v>371</v>
       </c>
       <c r="K130"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>222</v>
       </c>
     </row>

--- a/Plz_CAPUFE.xlsx
+++ b/Plz_CAPUFE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A00A61-8DEA-4EB7-86D9-5BB055320780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E268729E-E999-412B-90C3-30A03C8D68FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9270B6E3-9832-4BCF-841C-EDF847526966}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9270B6E3-9832-4BCF-841C-EDF847526966}"/>
   </bookViews>
   <sheets>
     <sheet name="Plazas_de_Cobro" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="384">
   <si>
     <t>FNI</t>
   </si>
@@ -1179,6 +1179,18 @@
   </si>
   <si>
     <t>Lagos de Moreno</t>
+  </si>
+  <si>
+    <t>La ventosa</t>
+  </si>
+  <si>
+    <t>1-Bis</t>
+  </si>
+  <si>
+    <t>56-Bis</t>
+  </si>
+  <si>
+    <t>67-Bis</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1251,6 +1263,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1645,7 +1660,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10</c:v>
@@ -2397,10 +2412,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}" name="BD_Plz" displayName="BD_Plz" ref="B4:I130" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I130" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H130">
-    <sortCondition ref="C4:C130"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}" name="BD_Plz" displayName="BD_Plz" ref="B4:I131" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I131" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:I130">
+    <sortCondition ref="D4:D130"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{47F4E585-D0AF-49D2-8CDC-A679C031738F}" name="Tipo de red" dataDxfId="7"/>
@@ -2639,7 +2654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C64693-009F-4AFE-8CB5-770F668B471E}">
-  <dimension ref="B2:L131"/>
+  <dimension ref="B2:L132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2695,28 +2710,28 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>28</v>
       </c>
-      <c r="E5" s="1">
-        <v>6</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>244</v>
@@ -2727,28 +2742,28 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>37</v>
@@ -2760,28 +2775,28 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>1</v>
@@ -2793,28 +2808,28 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>67.099999999999994</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>7</v>
@@ -2826,28 +2841,28 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>162</v>
@@ -2862,25 +2877,25 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>19</v>
@@ -2895,32 +2910,32 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>105</v>
       </c>
       <c r="L11" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K11)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
@@ -2928,25 +2943,25 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>14</v>
@@ -2958,28 +2973,28 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1">
-        <v>1.1000000000000001</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>10</v>
@@ -2991,28 +3006,28 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>23</v>
@@ -3024,28 +3039,28 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="1">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>59</v>
@@ -3057,28 +3072,28 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>46</v>
@@ -3090,28 +3105,28 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>259</v>
+        <v>355</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>28</v>
@@ -3129,22 +3144,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>56.1</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>54</v>
@@ -3162,13 +3177,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>31</v>
@@ -3177,7 +3192,7 @@
         <v>224</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K19"/>
     </row>
@@ -3186,25 +3201,25 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="K20"/>
     </row>
@@ -3213,160 +3228,160 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1">
         <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="K21"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="K22"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="K23"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="K24"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="K25"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="K26"/>
     </row>
@@ -3375,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="K27"/>
     </row>
@@ -3402,25 +3417,25 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>213</v>
+        <v>50</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
       <c r="K28"/>
     </row>
@@ -3429,133 +3444,133 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="E29" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="K29"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="K30"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="K31"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="K32"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="E33" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="K33"/>
     </row>
@@ -3564,214 +3579,214 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="K34"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="E35" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="K35"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="K36"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D37" s="1">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="K37"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="E38" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="K38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="E39" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="K39"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="E40" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="K40"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="E41" s="1">
         <v>6</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="K41"/>
     </row>
@@ -3780,25 +3795,25 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="E42" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="K42"/>
     </row>
@@ -3807,25 +3822,25 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="1">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="E43" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="K43"/>
     </row>
@@ -3834,52 +3849,52 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="E44" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="K44"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="D45" s="1">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="E45" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="K45"/>
     </row>
@@ -3888,25 +3903,25 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="E46" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="K46"/>
     </row>
@@ -3915,25 +3930,25 @@
         <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E47" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="K47"/>
     </row>
@@ -3942,25 +3957,25 @@
         <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D48" s="1">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E48" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
       <c r="K48"/>
     </row>
@@ -3969,106 +3984,106 @@
         <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D49" s="1">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E49" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="K49"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D50" s="1">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E50" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="K50"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D51" s="1">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E51" s="1">
         <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="K51"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="1">
-        <v>96</v>
+        <v>37</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="E52" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="K52"/>
     </row>
@@ -4077,25 +4092,25 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E53" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="K53"/>
     </row>
@@ -4104,25 +4119,25 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E54" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="K54"/>
     </row>
@@ -4131,52 +4146,52 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D55" s="1">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="E55" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="K55"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D56" s="1">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="E56" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>207</v>
+        <v>100</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="K56"/>
     </row>
@@ -4185,25 +4200,25 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="E57" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="K57"/>
     </row>
@@ -4212,25 +4227,25 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D58" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E58" s="1">
         <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="K58"/>
     </row>
@@ -4242,13 +4257,13 @@
         <v>105</v>
       </c>
       <c r="D59" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" s="1">
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>107</v>
@@ -4257,7 +4272,7 @@
         <v>105</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K59"/>
     </row>
@@ -4269,22 +4284,22 @@
         <v>105</v>
       </c>
       <c r="D60" s="1">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E60" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K60"/>
     </row>
@@ -4293,52 +4308,52 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E61" s="1">
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="K61"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="D62" s="1">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="K62"/>
     </row>
@@ -4347,52 +4362,52 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D63" s="1">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="K63"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="E64" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="K64"/>
     </row>
@@ -4401,25 +4416,25 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D65" s="1">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="E65" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K65"/>
     </row>
@@ -4428,25 +4443,25 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D66" s="1">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E66" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K66"/>
     </row>
@@ -4455,25 +4470,25 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D67" s="1">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E67" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="K67"/>
     </row>
@@ -4482,25 +4497,25 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D68" s="1">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E68" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="K68"/>
     </row>
@@ -4509,25 +4524,25 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D69" s="1">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E69" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="K69"/>
     </row>
@@ -4536,52 +4551,52 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D70" s="1">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E70" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="K70"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D71" s="1">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="E71" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="K71"/>
     </row>
@@ -4590,25 +4605,25 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="E72" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="K72"/>
     </row>
@@ -4617,25 +4632,25 @@
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>102</v>
+      </c>
+      <c r="E73" s="1">
         <v>14</v>
       </c>
-      <c r="D73" s="1">
-        <v>192</v>
-      </c>
-      <c r="E73" s="1">
-        <v>10</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="K73"/>
     </row>
@@ -4644,25 +4659,25 @@
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="E74" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="K74"/>
     </row>
@@ -4671,25 +4686,25 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="E75" s="1">
         <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="K75"/>
     </row>
@@ -4698,52 +4713,52 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="E76" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="K76"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="E77" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="K77"/>
     </row>
@@ -4752,52 +4767,52 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="E78" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="K78"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D79" s="1">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E79" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="K79"/>
     </row>
@@ -4806,25 +4821,25 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D80" s="1">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E80" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="K80"/>
     </row>
@@ -4833,25 +4848,25 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D81" s="1">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="E81" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="K81"/>
     </row>
@@ -4860,25 +4875,25 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="1">
+        <v>118</v>
+      </c>
+      <c r="E82" s="1">
         <v>10</v>
       </c>
-      <c r="D82" s="1">
-        <v>186</v>
-      </c>
-      <c r="E82" s="1">
-        <v>9</v>
-      </c>
       <c r="F82" s="1" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="K82"/>
     </row>
@@ -4887,25 +4902,25 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D83" s="1">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="E83" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>379</v>
+        <v>143</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="K83"/>
     </row>
@@ -4917,292 +4932,292 @@
         <v>10</v>
       </c>
       <c r="D84" s="1">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="E84" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K84"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D85" s="1">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="E85" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="K85"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D86" s="1">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E86" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="K86"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D87" s="1">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E87" s="1">
         <v>2</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="K87"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D88" s="1">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E88" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="K88"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1">
+        <v>136</v>
+      </c>
+      <c r="E89" s="1">
         <v>18</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="1">
-        <v>37</v>
-      </c>
-      <c r="E89" s="1">
-        <v>5</v>
-      </c>
       <c r="F89" s="1" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="K89"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D90" s="1">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="E90" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="K90"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D91" s="1">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="E91" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="K91"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D92" s="1">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="E92" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="K92"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D93" s="1">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="E93" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K93"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D94" s="1">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="E94" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K94"/>
     </row>
@@ -5211,133 +5226,133 @@
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D95" s="1">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="E95" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K95"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="D96" s="1">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="E96" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="K96"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="D97" s="1">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="E97" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="K97"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="D98" s="1">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="E98" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="K98"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="D99" s="1">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E99" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="K99"/>
     </row>
@@ -5346,25 +5361,25 @@
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="D100" s="1">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E100" s="1">
         <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="K100"/>
     </row>
@@ -5373,25 +5388,25 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="D101" s="1">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E101" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="K101"/>
     </row>
@@ -5403,22 +5418,22 @@
         <v>59</v>
       </c>
       <c r="D102" s="1">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E102" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K102"/>
     </row>
@@ -5430,13 +5445,13 @@
         <v>59</v>
       </c>
       <c r="D103" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E103" s="1">
         <v>4</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>174</v>
@@ -5445,7 +5460,7 @@
         <v>120</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K103"/>
     </row>
@@ -5457,22 +5472,22 @@
         <v>59</v>
       </c>
       <c r="D104" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E104" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K104"/>
     </row>
@@ -5484,13 +5499,13 @@
         <v>59</v>
       </c>
       <c r="D105" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E105" s="1">
         <v>5</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>177</v>
@@ -5499,7 +5514,7 @@
         <v>238</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K105"/>
     </row>
@@ -5508,79 +5523,79 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D106" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E106" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="K106"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B107" s="1" t="s">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>218</v>
+        <v>54</v>
+      </c>
+      <c r="D107" s="1">
+        <v>176</v>
+      </c>
+      <c r="E107" s="1">
+        <v>10</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="K107"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B108" s="1" t="s">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>218</v>
+        <v>28</v>
+      </c>
+      <c r="D108" s="1">
+        <v>177</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K108"/>
     </row>
@@ -5589,25 +5604,25 @@
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D109" s="1">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="E109" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="K109"/>
     </row>
@@ -5616,25 +5631,25 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D110" s="1">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="E110" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="K110"/>
     </row>
@@ -5643,25 +5658,25 @@
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D111" s="1">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="E111" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="K111"/>
     </row>
@@ -5670,25 +5685,25 @@
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="E112" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="K112"/>
     </row>
@@ -5697,133 +5712,133 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D113" s="1">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E113" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="K113"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D114" s="1">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="E114" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="K114"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D115" s="1">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="E115" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="K115"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B116" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D116" s="1">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="K116"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B117" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D117" s="1">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="E117" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K117"/>
     </row>
@@ -5832,25 +5847,25 @@
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="E118" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>137</v>
+        <v>379</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="K118"/>
     </row>
@@ -5859,25 +5874,25 @@
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D119" s="1">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="E119" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="K119"/>
     </row>
@@ -5886,133 +5901,133 @@
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D120" s="1">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E120" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="K120"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B121" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D121" s="1">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="E121" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="K121"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B122" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D122" s="1">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="E122" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="K122"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B123" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D123" s="1">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="E123" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="K123"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D124" s="1">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="E124" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="K124"/>
     </row>
@@ -6021,25 +6036,25 @@
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D125" s="1">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="E125" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>366</v>
+        <v>270</v>
       </c>
       <c r="K125"/>
     </row>
@@ -6048,25 +6063,25 @@
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D126" s="1">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="E126" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>367</v>
+        <v>271</v>
       </c>
       <c r="K126"/>
     </row>
@@ -6075,25 +6090,25 @@
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="D127" s="1">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="E127" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="K127"/>
     </row>
@@ -6102,84 +6117,110 @@
         <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="D128" s="1">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="E128" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>369</v>
+        <v>305</v>
       </c>
       <c r="K128"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B129" s="1" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D129" s="1">
-        <v>181</v>
-      </c>
-      <c r="E129" s="1">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="K129"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B130" s="1" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D130" s="1">
-        <v>182</v>
-      </c>
-      <c r="E130" s="1">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="K130"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B131" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B132" s="1" t="s">
         <v>222</v>
       </c>
     </row>

--- a/Plz_CAPUFE.xlsx
+++ b/Plz_CAPUFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E268729E-E999-412B-90C3-30A03C8D68FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EDF02A-FC2A-4858-AB2A-BA9547DE35A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9270B6E3-9832-4BCF-841C-EDF847526966}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9270B6E3-9832-4BCF-841C-EDF847526966}"/>
   </bookViews>
   <sheets>
     <sheet name="Plazas_de_Cobro" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="384">
   <si>
     <t>FNI</t>
   </si>
@@ -1181,9 +1181,6 @@
     <t>Lagos de Moreno</t>
   </si>
   <si>
-    <t>La ventosa</t>
-  </si>
-  <si>
     <t>1-Bis</t>
   </si>
   <si>
@@ -1191,6 +1188,9 @@
   </si>
   <si>
     <t>67-Bis</t>
+  </si>
+  <si>
+    <t>ND. No Disponible.</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1660,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10</c:v>
@@ -2412,8 +2412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}" name="BD_Plz" displayName="BD_Plz" ref="B4:I131" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I131" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}" name="BD_Plz" displayName="BD_Plz" ref="B4:I130" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I130" xr:uid="{A1EDAA42-2BB7-4B75-A235-31648B425DB4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:I130">
     <sortCondition ref="D4:D130"/>
   </sortState>
@@ -2656,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C64693-009F-4AFE-8CB5-770F668B471E}">
   <dimension ref="B2:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="L11" s="2">
         <f>COUNTIF(BD_Plz[Unidad regional],K11)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
@@ -3825,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E43" s="1">
         <v>4</v>
@@ -4068,7 +4068,7 @@
         <v>37</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -6195,28 +6195,7 @@
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B131" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>218</v>
+        <v>383</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.45">
